--- a/BackTest/2019-10-29 BackTest XLM.xlsx
+++ b/BackTest/2019-10-29 BackTest XLM.xlsx
@@ -1641,13 +1641,17 @@
         <v>75.80000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="K36" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1684,7 +1688,9 @@
       <c r="J37" t="n">
         <v>75.40000000000001</v>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1725,7 +1731,9 @@
       <c r="J38" t="n">
         <v>75.2</v>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1764,9 +1772,11 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1807,7 +1817,9 @@
       <c r="J40" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,9 +1858,11 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
+        <v>75.09999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1889,7 +1903,9 @@
       <c r="J42" t="n">
         <v>75.2</v>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1930,7 +1946,9 @@
       <c r="J43" t="n">
         <v>75.2</v>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1971,7 +1989,9 @@
       <c r="J44" t="n">
         <v>75.2</v>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2004,15 +2024,15 @@
         <v>75.43000000000004</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2045,15 +2065,15 @@
         <v>75.40000000000005</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2086,15 +2106,15 @@
         <v>75.37000000000005</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2127,15 +2147,15 @@
         <v>75.34500000000006</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,15 +2188,15 @@
         <v>75.32000000000005</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,15 +2229,15 @@
         <v>75.29500000000004</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,15 +2270,15 @@
         <v>75.27500000000005</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,15 +2311,15 @@
         <v>75.26500000000006</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,15 +2352,15 @@
         <v>75.26500000000006</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2373,15 +2393,15 @@
         <v>75.27000000000005</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,15 +2434,15 @@
         <v>75.27500000000005</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2455,15 +2475,15 @@
         <v>75.29000000000005</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,15 +2516,15 @@
         <v>75.31000000000003</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2537,15 +2557,15 @@
         <v>75.34000000000003</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2578,15 +2598,15 @@
         <v>75.36500000000004</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2619,15 +2639,15 @@
         <v>75.40000000000003</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,15 +2680,15 @@
         <v>75.44000000000003</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>76</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2701,15 +2721,15 @@
         <v>75.47500000000004</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2748,7 +2768,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,7 +2809,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,7 +2850,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2865,7 +2891,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,7 +2932,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,7 +2973,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2982,7 +3014,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,7 +3055,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3060,7 +3096,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3099,7 +3137,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,7 +3178,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3177,7 +3219,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,7 +3260,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3255,7 +3301,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3294,7 +3342,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3333,7 +3383,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,15 +3418,15 @@
         <v>75.74500000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,15 +3459,15 @@
         <v>75.74000000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,15 +3500,15 @@
         <v>75.73500000000003</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,15 +3541,15 @@
         <v>75.74000000000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>76</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,7 +3588,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3575,7 +3629,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3614,7 +3670,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,7 +3711,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,7 +3752,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3731,7 +3793,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,7 +3834,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3809,7 +3875,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3848,7 +3916,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3887,7 +3957,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3926,7 +3998,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3965,7 +4039,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,7 +4080,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4043,7 +4121,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,7 +4162,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4121,7 +4203,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4160,7 +4244,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4199,7 +4285,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4238,7 +4326,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4277,7 +4367,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4316,7 +4408,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4355,7 +4449,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,7 +4490,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,7 +4531,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4472,7 +4572,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4511,7 +4613,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4550,7 +4654,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4589,7 +4695,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4628,7 +4736,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4667,7 +4777,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4706,7 +4818,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4745,7 +4859,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,7 +4900,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4823,7 +4941,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4862,7 +4982,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4901,7 +5023,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4940,7 +5064,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,7 +5105,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,7 +5146,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5057,7 +5187,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,7 +5228,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5135,7 +5269,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,15 +5304,15 @@
         <v>75.68000000000002</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,15 +5345,15 @@
         <v>75.65500000000002</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5256,7 +5392,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5295,7 +5433,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5334,7 +5474,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,7 +5515,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,7 +5556,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5445,15 +5591,15 @@
         <v>75.51500000000003</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,15 +5632,15 @@
         <v>75.49500000000003</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5527,15 +5673,15 @@
         <v>75.47000000000003</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5568,15 +5714,15 @@
         <v>75.45000000000003</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5609,15 +5755,15 @@
         <v>75.44000000000003</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5650,15 +5796,15 @@
         <v>75.43500000000003</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5691,15 +5837,15 @@
         <v>75.43500000000003</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5738,7 +5884,9 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5777,7 +5925,9 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5816,7 +5966,9 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5855,7 +6007,9 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5894,7 +6048,9 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5933,7 +6089,9 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,7 +6130,9 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6011,7 +6171,9 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,7 +6212,9 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6089,7 +6253,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6128,7 +6294,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,7 +6335,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6206,7 +6376,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6245,7 +6417,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6284,7 +6458,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6323,7 +6499,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6362,7 +6540,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6401,7 +6581,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6440,7 +6622,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6479,7 +6663,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6518,7 +6704,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6557,7 +6745,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6596,7 +6786,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6635,7 +6827,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6674,7 +6868,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6713,7 +6909,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,7 +6950,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6791,7 +6991,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6830,7 +7032,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6869,7 +7073,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,7 +7114,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6947,7 +7155,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,7 +7196,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7025,7 +7237,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,7 +7278,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7103,7 +7319,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7142,7 +7360,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,7 +7401,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7220,7 +7442,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,7 +7483,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7298,7 +7524,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7337,7 +7565,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7376,7 +7606,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7415,7 +7647,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,7 +7688,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7493,7 +7729,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7532,7 +7770,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,7 +7811,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7610,7 +7852,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7649,7 +7893,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7688,7 +7934,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7727,7 +7975,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7766,7 +8016,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7805,7 +8057,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7844,7 +8098,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7883,7 +8139,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,7 +8180,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7961,7 +8221,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,7 +8262,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8039,7 +8303,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8078,7 +8344,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +8385,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,7 +8426,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8195,7 +8467,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,7 +8508,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8273,7 +8549,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8312,7 +8590,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,7 +8631,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8390,7 +8672,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8429,7 +8713,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8468,7 +8754,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8507,7 +8795,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8546,7 +8836,9 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8585,7 +8877,9 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8624,7 +8918,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8663,7 +8959,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8702,7 +9000,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8741,7 +9041,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8780,7 +9082,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8819,7 +9123,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,7 +9164,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8897,7 +9205,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8936,7 +9246,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8975,7 +9287,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9014,7 +9328,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9053,7 +9369,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9092,7 +9410,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9131,7 +9451,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9170,7 +9492,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9209,7 +9533,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9248,7 +9574,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9287,7 +9615,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9326,7 +9656,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9365,7 +9697,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9404,7 +9738,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9443,7 +9779,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9482,7 +9820,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9521,7 +9861,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9560,7 +9902,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,7 +9943,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9638,7 +9984,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9671,13 +10019,17 @@
         <v>76.16499999999999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K240" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9710,13 +10062,17 @@
         <v>76.16999999999999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="K241" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9755,7 +10111,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9794,7 +10152,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9833,7 +10193,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9872,7 +10234,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9911,7 +10275,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9950,7 +10316,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9989,7 +10357,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10028,7 +10398,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10067,7 +10439,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,7 +10480,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10145,7 +10521,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10184,7 +10562,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,7 +10603,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,7 +10644,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10301,7 +10685,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10340,7 +10726,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,7 +10767,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10418,7 +10808,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,7 +10849,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10496,7 +10890,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10535,7 +10931,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10574,7 +10972,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10613,7 +11013,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10652,7 +11054,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10691,7 +11095,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10730,7 +11136,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,7 +11177,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10808,7 +11218,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10847,7 +11259,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10886,7 +11300,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10925,7 +11341,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10964,7 +11382,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11000,16 +11420,20 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>75.40000000000001</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M274" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11037,11 +11461,17 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11072,11 +11502,17 @@
         <v>0</v>
       </c>
       <c r="I276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11110,8 +11546,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11142,11 +11584,17 @@
         <v>0</v>
       </c>
       <c r="I278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11177,11 +11625,17 @@
         <v>0</v>
       </c>
       <c r="I279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +11666,17 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11247,11 +11707,17 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11282,11 +11748,17 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11320,8 +11792,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11355,8 +11833,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11390,8 +11874,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11425,8 +11915,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11460,8 +11956,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11495,8 +11997,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11530,8 +12038,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11565,8 +12079,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11600,8 +12120,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11635,8 +12161,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11670,8 +12202,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11705,8 +12243,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12284,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11775,8 +12325,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11810,8 +12366,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11845,8 +12407,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11880,8 +12448,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +12489,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11950,8 +12530,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11985,8 +12571,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12020,8 +12612,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12055,8 +12653,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12090,8 +12694,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12125,8 +12735,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12154,14 +12770,22 @@
         <v>77.13500000000002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="K307" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12195,8 +12819,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12230,8 +12860,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12265,8 +12901,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12300,8 +12942,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12335,8 +12983,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12370,8 +13024,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12405,8 +13065,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12440,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12475,8 +13147,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12504,14 +13182,22 @@
         <v>77.205</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="K317" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12545,8 +13231,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12580,8 +13272,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12615,8 +13313,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12650,8 +13354,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12685,8 +13395,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12720,8 +13436,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12755,8 +13477,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12790,8 +13518,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12825,8 +13559,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12860,8 +13600,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13641,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12930,8 +13682,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12965,8 +13723,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13000,8 +13764,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13035,8 +13805,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +13846,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13105,8 +13887,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13140,8 +13928,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13175,8 +13969,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13210,8 +14010,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13245,8 +14051,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13280,8 +14092,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13315,8 +14133,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13350,8 +14174,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13385,8 +14215,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13420,8 +14256,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13455,8 +14297,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13490,8 +14338,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13525,8 +14379,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13560,8 +14420,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13595,8 +14461,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13630,8 +14502,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13665,8 +14543,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13700,8 +14584,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13735,8 +14625,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13770,8 +14666,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13805,8 +14707,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13840,8 +14748,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13875,8 +14789,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13910,8 +14830,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13945,8 +14871,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13980,8 +14912,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14015,8 +14953,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14050,8 +14994,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14085,8 +15035,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14120,8 +15076,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14155,8 +15117,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14190,8 +15158,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +15199,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14260,8 +15240,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14295,8 +15281,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14330,8 +15322,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14365,8 +15363,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14400,8 +15404,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14435,8 +15445,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14470,8 +15486,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14505,8 +15527,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14540,8 +15568,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14575,8 +15609,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14610,8 +15650,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14645,8 +15691,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14680,8 +15732,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14715,8 +15773,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14750,8 +15814,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14785,8 +15855,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14820,8 +15896,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14855,8 +15937,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14890,8 +15978,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14925,8 +16019,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14960,8 +16060,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14995,8 +16101,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15030,8 +16142,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15065,8 +16183,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15100,8 +16224,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +16265,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15170,8 +16306,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15205,8 +16347,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15240,8 +16388,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15275,8 +16429,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15310,8 +16470,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15345,8 +16511,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15380,8 +16552,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15415,8 +16593,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15450,8 +16634,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15485,8 +16675,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15520,8 +16716,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15555,8 +16757,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15590,8 +16798,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15625,8 +16839,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15660,8 +16880,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15695,8 +16921,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15730,8 +16962,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15765,8 +17003,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15800,8 +17044,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15835,8 +17085,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15870,8 +17126,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15905,8 +17167,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15940,8 +17208,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15975,8 +17249,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16010,8 +17290,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16045,8 +17331,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16080,8 +17372,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16115,8 +17413,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16150,8 +17454,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16185,8 +17495,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16220,8 +17536,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16255,8 +17577,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16287,13 +17615,19 @@
         <v>0</v>
       </c>
       <c r="I425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M425" t="n">
-        <v>1</v>
+        <v>1.053355437665783</v>
       </c>
     </row>
     <row r="426">
@@ -16322,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest XLM.xlsx
+++ b/BackTest/2019-10-29 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1474,14 +1474,10 @@
         <v>17180110.95101217</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1511,2767 +1507,2349 @@
         <v>17184981.86461217</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>76</v>
+      </c>
+      <c r="C35" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E35" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F35" t="n">
+        <v>79062.011</v>
+      </c>
+      <c r="G35" t="n">
+        <v>17264043.87561217</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>76</v>
+      </c>
+      <c r="C36" t="n">
+        <v>76</v>
+      </c>
+      <c r="D36" t="n">
+        <v>76</v>
+      </c>
+      <c r="E36" t="n">
+        <v>76</v>
+      </c>
+      <c r="F36" t="n">
+        <v>412.6561</v>
+      </c>
+      <c r="G36" t="n">
+        <v>17263631.21951217</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C37" t="n">
+        <v>76</v>
+      </c>
+      <c r="D37" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>76</v>
+      </c>
+      <c r="F37" t="n">
+        <v>5627.9571</v>
+      </c>
+      <c r="G37" t="n">
+        <v>17263631.21951217</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1119.5438</v>
+      </c>
+      <c r="G38" t="n">
+        <v>17262511.67571217</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
         <v>75.7</v>
       </c>
-      <c r="J34" t="n">
+      <c r="C39" t="n">
         <v>75.7</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="D39" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4911.6999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>17257599.97581217</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D40" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E40" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6185.4999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>17257599.97581217</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C41" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>25570.3692</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17283170.34501217</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>114915.6561</v>
+      </c>
+      <c r="G42" t="n">
+        <v>17398086.00111217</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>76</v>
+      </c>
+      <c r="C43" t="n">
+        <v>76</v>
+      </c>
+      <c r="D43" t="n">
+        <v>76</v>
+      </c>
+      <c r="E43" t="n">
+        <v>76</v>
+      </c>
+      <c r="F43" t="n">
+        <v>368.9009</v>
+      </c>
+      <c r="G43" t="n">
+        <v>17397717.10021217</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E44" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>463.8713</v>
+      </c>
+      <c r="G44" t="n">
+        <v>17398180.97151217</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C45" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E45" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>263.8496</v>
+      </c>
+      <c r="G45" t="n">
+        <v>17397917.12191217</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C46" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F46" t="n">
+        <v>541.6237</v>
+      </c>
+      <c r="G46" t="n">
+        <v>17397917.12191217</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C47" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D47" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E47" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>731.5267</v>
+      </c>
+      <c r="G47" t="n">
+        <v>17397917.12191217</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C48" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D48" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4197.0804</v>
+      </c>
+      <c r="G48" t="n">
+        <v>17397917.12191217</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>76</v>
+      </c>
+      <c r="C49" t="n">
+        <v>76</v>
+      </c>
+      <c r="D49" t="n">
+        <v>76</v>
+      </c>
+      <c r="E49" t="n">
+        <v>76</v>
+      </c>
+      <c r="F49" t="n">
+        <v>585</v>
+      </c>
+      <c r="G49" t="n">
+        <v>17398502.12191217</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C50" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E50" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>13108.27522935</v>
+      </c>
+      <c r="G50" t="n">
+        <v>17411610.39714152</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>76</v>
+      </c>
+      <c r="C51" t="n">
+        <v>76</v>
+      </c>
+      <c r="D51" t="n">
+        <v>76</v>
+      </c>
+      <c r="E51" t="n">
+        <v>76</v>
+      </c>
+      <c r="F51" t="n">
+        <v>490.3992</v>
+      </c>
+      <c r="G51" t="n">
+        <v>17411119.99794152</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="C52" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="D52" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="E52" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7958.1993</v>
+      </c>
+      <c r="G52" t="n">
+        <v>17419078.19724152</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E53" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>112</v>
+      </c>
+      <c r="G53" t="n">
+        <v>17418966.19724152</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C54" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12</v>
+      </c>
+      <c r="G54" t="n">
+        <v>17418966.19724152</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>620.9151000000001</v>
+      </c>
+      <c r="G55" t="n">
+        <v>17418966.19724152</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D56" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>6452.8226</v>
+      </c>
+      <c r="G56" t="n">
+        <v>17425419.01984152</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C57" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2628.1208</v>
+      </c>
+      <c r="G57" t="n">
+        <v>17425419.01984152</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C58" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F58" t="n">
+        <v>482</v>
+      </c>
+      <c r="G58" t="n">
+        <v>17424937.01984152</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>5009.2413</v>
+      </c>
+      <c r="G59" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C60" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E60" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>9499.1445</v>
+      </c>
+      <c r="G60" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>730.1458</v>
+      </c>
+      <c r="G61" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D62" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3119.3715</v>
+      </c>
+      <c r="G62" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C63" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>725.2156</v>
+      </c>
+      <c r="G63" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D64" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F64" t="n">
+        <v>532.7973</v>
+      </c>
+      <c r="G64" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D65" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1053.021</v>
+      </c>
+      <c r="G65" t="n">
+        <v>17419927.77854152</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>76</v>
+      </c>
+      <c r="C66" t="n">
+        <v>76</v>
+      </c>
+      <c r="D66" t="n">
+        <v>76</v>
+      </c>
+      <c r="E66" t="n">
+        <v>76</v>
+      </c>
+      <c r="F66" t="n">
+        <v>28595</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17448522.77854152</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>76</v>
+      </c>
+      <c r="C67" t="n">
+        <v>76</v>
+      </c>
+      <c r="D67" t="n">
+        <v>76</v>
+      </c>
+      <c r="E67" t="n">
+        <v>76</v>
+      </c>
+      <c r="F67" t="n">
+        <v>715</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17448522.77854152</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C68" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D68" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E68" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F68" t="n">
+        <v>2377.3736</v>
+      </c>
+      <c r="G68" t="n">
+        <v>17446145.40494152</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C69" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F69" t="n">
+        <v>6038.7513</v>
+      </c>
+      <c r="G69" t="n">
+        <v>17446145.40494152</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C70" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E70" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1359.4526</v>
+      </c>
+      <c r="G70" t="n">
+        <v>17446145.40494152</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C71" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E71" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1547.5757</v>
+      </c>
+      <c r="G71" t="n">
+        <v>17446145.40494152</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C72" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E72" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>849.129</v>
+      </c>
+      <c r="G72" t="n">
+        <v>17446145.40494152</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E73" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F73" t="n">
+        <v>13335.5615</v>
+      </c>
+      <c r="G73" t="n">
+        <v>17446145.40494152</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F74" t="n">
+        <v>14891.9842</v>
+      </c>
+      <c r="G74" t="n">
+        <v>17461037.38914152</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>76</v>
+      </c>
+      <c r="C75" t="n">
+        <v>76</v>
+      </c>
+      <c r="D75" t="n">
+        <v>76</v>
+      </c>
+      <c r="E75" t="n">
+        <v>76</v>
+      </c>
+      <c r="F75" t="n">
+        <v>2970.8949</v>
+      </c>
+      <c r="G75" t="n">
+        <v>17458066.49424152</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>76</v>
+      </c>
+      <c r="C76" t="n">
+        <v>76</v>
+      </c>
+      <c r="D76" t="n">
+        <v>76</v>
+      </c>
+      <c r="E76" t="n">
+        <v>76</v>
+      </c>
+      <c r="F76" t="n">
+        <v>436.3953</v>
+      </c>
+      <c r="G76" t="n">
+        <v>17458066.49424152</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="n">
+        <v>76</v>
+      </c>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6111.483</v>
+      </c>
+      <c r="G77" t="n">
+        <v>17458066.49424152</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F78" t="n">
+        <v>9820</v>
+      </c>
+      <c r="G78" t="n">
+        <v>17467886.49424152</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C79" t="n">
+        <v>76</v>
+      </c>
+      <c r="D79" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>76</v>
+      </c>
+      <c r="F79" t="n">
+        <v>14421.8496</v>
+      </c>
+      <c r="G79" t="n">
+        <v>17453464.64464152</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C80" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D80" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F80" t="n">
+        <v>6642.6697</v>
+      </c>
+      <c r="G80" t="n">
+        <v>17460107.31434152</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C81" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="D81" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="F81" t="n">
+        <v>50158.7485</v>
+      </c>
+      <c r="G81" t="n">
+        <v>17460107.31434152</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C82" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F82" t="n">
+        <v>61036.741</v>
+      </c>
+      <c r="G82" t="n">
+        <v>17399070.57334152</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C83" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E83" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>10300</v>
+      </c>
+      <c r="G83" t="n">
+        <v>17399070.57334152</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="C84" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="E84" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F84" t="n">
+        <v>39889.4621</v>
+      </c>
+      <c r="G84" t="n">
+        <v>17399070.57334152</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C85" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E85" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="F85" t="n">
+        <v>258.621</v>
+      </c>
+      <c r="G85" t="n">
+        <v>17398811.95234152</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="C86" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E86" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F86" t="n">
+        <v>54051.1173</v>
+      </c>
+      <c r="G86" t="n">
+        <v>17344760.83504152</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C87" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>68551.01790000001</v>
+      </c>
+      <c r="G87" t="n">
+        <v>17276209.81714152</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C88" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D88" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E88" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F88" t="n">
+        <v>736.2</v>
+      </c>
+      <c r="G88" t="n">
+        <v>17276946.01714152</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C89" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D89" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E89" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>184</v>
+      </c>
+      <c r="G89" t="n">
+        <v>17276946.01714152</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="C90" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="D90" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="E90" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="F90" t="n">
+        <v>38</v>
+      </c>
+      <c r="G90" t="n">
+        <v>17276946.01714152</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C91" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F91" t="n">
+        <v>28607.4525</v>
+      </c>
+      <c r="G91" t="n">
+        <v>17248338.56464152</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="C92" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>75.5</v>
+      </c>
+      <c r="F92" t="n">
+        <v>516</v>
+      </c>
+      <c r="G92" t="n">
+        <v>17248854.56464152</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C93" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D93" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E93" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F93" t="n">
+        <v>121.7368</v>
+      </c>
+      <c r="G93" t="n">
+        <v>17248732.82784152</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C94" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E94" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F94" t="n">
+        <v>18787.5661</v>
+      </c>
+      <c r="G94" t="n">
+        <v>17248732.82784152</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C95" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="D95" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E95" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="F95" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G95" t="n">
+        <v>17248732.82784152</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D96" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F96" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>17173732.82784152</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C97" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D97" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E97" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F97" t="n">
+        <v>103093.4774</v>
+      </c>
+      <c r="G97" t="n">
+        <v>17070639.35044152</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C98" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E98" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>721.8742999999999</v>
+      </c>
+      <c r="G98" t="n">
+        <v>17070639.35044152</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C99" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D99" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E99" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F99" t="n">
+        <v>22685.6472</v>
+      </c>
+      <c r="G99" t="n">
+        <v>17070639.35044152</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C100" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E100" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>53.1914</v>
+      </c>
+      <c r="G100" t="n">
+        <v>17070692.54184152</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D101" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E101" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>20828.7962</v>
+      </c>
+      <c r="G101" t="n">
+        <v>17070692.54184152</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C102" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E102" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F102" t="n">
+        <v>80216.5147</v>
+      </c>
+      <c r="G102" t="n">
+        <v>17070692.54184152</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E103" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>58105.4882</v>
+      </c>
+      <c r="G103" t="n">
+        <v>17070692.54184152</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="C104" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="E104" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="F104" t="n">
+        <v>36749.8803</v>
+      </c>
+      <c r="G104" t="n">
+        <v>17070692.54184152</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>76</v>
-      </c>
-      <c r="C35" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="D35" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="E35" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F35" t="n">
-        <v>79062.011</v>
-      </c>
-      <c r="G35" t="n">
-        <v>17264043.87561217</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>76</v>
-      </c>
-      <c r="C36" t="n">
-        <v>76</v>
-      </c>
-      <c r="D36" t="n">
-        <v>76</v>
-      </c>
-      <c r="E36" t="n">
-        <v>76</v>
-      </c>
-      <c r="F36" t="n">
-        <v>412.6561</v>
-      </c>
-      <c r="G36" t="n">
-        <v>17263631.21951217</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C37" t="n">
-        <v>76</v>
-      </c>
-      <c r="D37" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E37" t="n">
-        <v>76</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5627.9571</v>
-      </c>
-      <c r="G37" t="n">
-        <v>17263631.21951217</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C38" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D38" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E38" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1119.5438</v>
-      </c>
-      <c r="G38" t="n">
-        <v>17262511.67571217</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="C39" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="D39" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="E39" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4911.6999</v>
-      </c>
-      <c r="G39" t="n">
-        <v>17257599.97581217</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="C40" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="D40" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="E40" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6185.4999</v>
-      </c>
-      <c r="G40" t="n">
-        <v>17257599.97581217</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C41" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D41" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E41" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>25570.3692</v>
-      </c>
-      <c r="G41" t="n">
-        <v>17283170.34501217</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="C42" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="D42" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="E42" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F42" t="n">
-        <v>114915.6561</v>
-      </c>
-      <c r="G42" t="n">
-        <v>17398086.00111217</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>76</v>
-      </c>
-      <c r="C43" t="n">
-        <v>76</v>
-      </c>
-      <c r="D43" t="n">
-        <v>76</v>
-      </c>
-      <c r="E43" t="n">
-        <v>76</v>
-      </c>
-      <c r="F43" t="n">
-        <v>368.9009</v>
-      </c>
-      <c r="G43" t="n">
-        <v>17397717.10021217</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="D44" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="E44" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>463.8713</v>
-      </c>
-      <c r="G44" t="n">
-        <v>17398180.97151217</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C45" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D45" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E45" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F45" t="n">
-        <v>263.8496</v>
-      </c>
-      <c r="G45" t="n">
-        <v>17397917.12191217</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C46" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D46" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E46" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F46" t="n">
-        <v>541.6237</v>
-      </c>
-      <c r="G46" t="n">
-        <v>17397917.12191217</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C47" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D47" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E47" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F47" t="n">
-        <v>731.5267</v>
-      </c>
-      <c r="G47" t="n">
-        <v>17397917.12191217</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C48" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D48" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E48" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4197.0804</v>
-      </c>
-      <c r="G48" t="n">
-        <v>17397917.12191217</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>76</v>
-      </c>
-      <c r="C49" t="n">
-        <v>76</v>
-      </c>
-      <c r="D49" t="n">
-        <v>76</v>
-      </c>
-      <c r="E49" t="n">
-        <v>76</v>
-      </c>
-      <c r="F49" t="n">
-        <v>585</v>
-      </c>
-      <c r="G49" t="n">
-        <v>17398502.12191217</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="C50" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D50" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E50" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F50" t="n">
-        <v>13108.27522935</v>
-      </c>
-      <c r="G50" t="n">
-        <v>17411610.39714152</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>76</v>
-      </c>
-      <c r="C51" t="n">
-        <v>76</v>
-      </c>
-      <c r="D51" t="n">
-        <v>76</v>
-      </c>
-      <c r="E51" t="n">
-        <v>76</v>
-      </c>
-      <c r="F51" t="n">
-        <v>490.3992</v>
-      </c>
-      <c r="G51" t="n">
-        <v>17411119.99794152</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="C52" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="D52" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="E52" t="n">
-        <v>76.2</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7958.1993</v>
-      </c>
-      <c r="G52" t="n">
-        <v>17419078.19724152</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C53" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D53" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E53" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>112</v>
-      </c>
-      <c r="G53" t="n">
-        <v>17418966.19724152</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C54" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D54" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E54" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>12</v>
-      </c>
-      <c r="G54" t="n">
-        <v>17418966.19724152</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C55" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D55" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E55" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>620.9151000000001</v>
-      </c>
-      <c r="G55" t="n">
-        <v>17418966.19724152</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C56" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D56" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E56" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F56" t="n">
-        <v>6452.8226</v>
-      </c>
-      <c r="G56" t="n">
-        <v>17425419.01984152</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C57" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D57" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E57" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F57" t="n">
-        <v>2628.1208</v>
-      </c>
-      <c r="G57" t="n">
-        <v>17425419.01984152</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C58" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D58" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F58" t="n">
-        <v>482</v>
-      </c>
-      <c r="G58" t="n">
-        <v>17424937.01984152</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E59" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>5009.2413</v>
-      </c>
-      <c r="G59" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C60" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D60" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F60" t="n">
-        <v>9499.1445</v>
-      </c>
-      <c r="G60" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C61" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D61" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E61" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F61" t="n">
-        <v>730.1458</v>
-      </c>
-      <c r="G61" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D62" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E62" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>3119.3715</v>
-      </c>
-      <c r="G62" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C63" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D63" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E63" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F63" t="n">
-        <v>725.2156</v>
-      </c>
-      <c r="G63" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C64" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D64" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E64" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F64" t="n">
-        <v>532.7973</v>
-      </c>
-      <c r="G64" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D65" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E65" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1053.021</v>
-      </c>
-      <c r="G65" t="n">
-        <v>17419927.77854152</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>76</v>
-      </c>
-      <c r="C66" t="n">
-        <v>76</v>
-      </c>
-      <c r="D66" t="n">
-        <v>76</v>
-      </c>
-      <c r="E66" t="n">
-        <v>76</v>
-      </c>
-      <c r="F66" t="n">
-        <v>28595</v>
-      </c>
-      <c r="G66" t="n">
-        <v>17448522.77854152</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>76</v>
-      </c>
-      <c r="C67" t="n">
-        <v>76</v>
-      </c>
-      <c r="D67" t="n">
-        <v>76</v>
-      </c>
-      <c r="E67" t="n">
-        <v>76</v>
-      </c>
-      <c r="F67" t="n">
-        <v>715</v>
-      </c>
-      <c r="G67" t="n">
-        <v>17448522.77854152</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C68" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D68" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E68" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2377.3736</v>
-      </c>
-      <c r="G68" t="n">
-        <v>17446145.40494152</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C69" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D69" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E69" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F69" t="n">
-        <v>6038.7513</v>
-      </c>
-      <c r="G69" t="n">
-        <v>17446145.40494152</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C70" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D70" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E70" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1359.4526</v>
-      </c>
-      <c r="G70" t="n">
-        <v>17446145.40494152</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C71" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D71" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E71" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F71" t="n">
-        <v>1547.5757</v>
-      </c>
-      <c r="G71" t="n">
-        <v>17446145.40494152</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C72" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D72" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E72" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F72" t="n">
-        <v>849.129</v>
-      </c>
-      <c r="G72" t="n">
-        <v>17446145.40494152</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C73" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D73" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E73" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F73" t="n">
-        <v>13335.5615</v>
-      </c>
-      <c r="G73" t="n">
-        <v>17446145.40494152</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C74" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D74" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E74" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F74" t="n">
-        <v>14891.9842</v>
-      </c>
-      <c r="G74" t="n">
-        <v>17461037.38914152</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>76</v>
-      </c>
-      <c r="C75" t="n">
-        <v>76</v>
-      </c>
-      <c r="D75" t="n">
-        <v>76</v>
-      </c>
-      <c r="E75" t="n">
-        <v>76</v>
-      </c>
-      <c r="F75" t="n">
-        <v>2970.8949</v>
-      </c>
-      <c r="G75" t="n">
-        <v>17458066.49424152</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
-        <v>76</v>
-      </c>
-      <c r="C76" t="n">
-        <v>76</v>
-      </c>
-      <c r="D76" t="n">
-        <v>76</v>
-      </c>
-      <c r="E76" t="n">
-        <v>76</v>
-      </c>
-      <c r="F76" t="n">
-        <v>436.3953</v>
-      </c>
-      <c r="G76" t="n">
-        <v>17458066.49424152</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
-        <v>76</v>
-      </c>
-      <c r="C77" t="n">
-        <v>76</v>
-      </c>
-      <c r="D77" t="n">
-        <v>76</v>
-      </c>
-      <c r="E77" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6111.483</v>
-      </c>
-      <c r="G77" t="n">
-        <v>17458066.49424152</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C78" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D78" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E78" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F78" t="n">
-        <v>9820</v>
-      </c>
-      <c r="G78" t="n">
-        <v>17467886.49424152</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C79" t="n">
-        <v>76</v>
-      </c>
-      <c r="D79" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="E79" t="n">
-        <v>76</v>
-      </c>
-      <c r="F79" t="n">
-        <v>14421.8496</v>
-      </c>
-      <c r="G79" t="n">
-        <v>17453464.64464152</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C80" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D80" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E80" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F80" t="n">
-        <v>6642.6697</v>
-      </c>
-      <c r="G80" t="n">
-        <v>17460107.31434152</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C81" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="D81" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E81" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="F81" t="n">
-        <v>50158.7485</v>
-      </c>
-      <c r="G81" t="n">
-        <v>17460107.31434152</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="C82" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D82" t="n">
-        <v>76.09999999999999</v>
-      </c>
-      <c r="E82" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F82" t="n">
-        <v>61036.741</v>
-      </c>
-      <c r="G82" t="n">
-        <v>17399070.57334152</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C83" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D83" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E83" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F83" t="n">
-        <v>10300</v>
-      </c>
-      <c r="G83" t="n">
-        <v>17399070.57334152</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="C84" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="D84" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="E84" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="F84" t="n">
-        <v>39889.4621</v>
-      </c>
-      <c r="G84" t="n">
-        <v>17399070.57334152</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C85" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D85" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E85" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="F85" t="n">
-        <v>258.621</v>
-      </c>
-      <c r="G85" t="n">
-        <v>17398811.95234152</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="C86" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="D86" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F86" t="n">
-        <v>54051.1173</v>
-      </c>
-      <c r="G86" t="n">
-        <v>17344760.83504152</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="C87" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="D87" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E87" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="F87" t="n">
-        <v>68551.01790000001</v>
-      </c>
-      <c r="G87" t="n">
-        <v>17276209.81714152</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="C88" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="E88" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>736.2</v>
-      </c>
-      <c r="G88" t="n">
-        <v>17276946.01714152</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="C89" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="D89" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="E89" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F89" t="n">
-        <v>184</v>
-      </c>
-      <c r="G89" t="n">
-        <v>17276946.01714152</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="C90" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="F90" t="n">
-        <v>38</v>
-      </c>
-      <c r="G90" t="n">
-        <v>17276946.01714152</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="C91" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D91" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="E91" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F91" t="n">
-        <v>28607.4525</v>
-      </c>
-      <c r="G91" t="n">
-        <v>17248338.56464152</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="C92" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="D92" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="E92" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="F92" t="n">
-        <v>516</v>
-      </c>
-      <c r="G92" t="n">
-        <v>17248854.56464152</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C93" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D93" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E93" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F93" t="n">
-        <v>121.7368</v>
-      </c>
-      <c r="G93" t="n">
-        <v>17248732.82784152</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C94" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D94" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E94" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F94" t="n">
-        <v>18787.5661</v>
-      </c>
-      <c r="G94" t="n">
-        <v>17248732.82784152</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C95" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="D95" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E95" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="F95" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G95" t="n">
-        <v>17248732.82784152</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="C96" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D96" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E96" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F96" t="n">
-        <v>75000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>17173732.82784152</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C97" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D97" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E97" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F97" t="n">
-        <v>103093.4774</v>
-      </c>
-      <c r="G97" t="n">
-        <v>17070639.35044152</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C98" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D98" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E98" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F98" t="n">
-        <v>721.8742999999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>17070639.35044152</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J98" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="C99" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="D99" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="E99" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F99" t="n">
-        <v>22685.6472</v>
-      </c>
-      <c r="G99" t="n">
-        <v>17070639.35044152</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J99" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C100" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D100" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E100" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F100" t="n">
-        <v>53.1914</v>
-      </c>
-      <c r="G100" t="n">
-        <v>17070692.54184152</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="J100" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F101" t="n">
-        <v>20828.7962</v>
-      </c>
-      <c r="G101" t="n">
-        <v>17070692.54184152</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F102" t="n">
-        <v>80216.5147</v>
-      </c>
-      <c r="G102" t="n">
-        <v>17070692.54184152</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>58105.4882</v>
-      </c>
-      <c r="G103" t="n">
-        <v>17070692.54184152</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="C104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="D104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="E104" t="n">
-        <v>75.09999999999999</v>
-      </c>
-      <c r="F104" t="n">
-        <v>36749.8803</v>
-      </c>
-      <c r="G104" t="n">
-        <v>17070692.54184152</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4300,13 +3878,13 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>75.2</v>
       </c>
       <c r="J105" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4341,13 +3919,13 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>75.2</v>
       </c>
       <c r="J106" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4382,13 +3960,13 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>75.2</v>
       </c>
       <c r="J107" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4423,13 +4001,13 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>75.2</v>
       </c>
       <c r="J108" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4464,13 +4042,13 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>75.2</v>
       </c>
       <c r="J109" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4505,13 +4083,13 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>75.2</v>
       </c>
       <c r="J110" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4546,13 +4124,13 @@
         <v>17071876.54184152</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>75.2</v>
       </c>
       <c r="J111" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4587,13 +4165,13 @@
         <v>17070476.54184152</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>75.59999999999999</v>
       </c>
       <c r="J112" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4628,13 +4206,13 @@
         <v>17070476.54184152</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>75.5</v>
       </c>
       <c r="J113" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4669,13 +4247,13 @@
         <v>17080052.35624152</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>75.5</v>
       </c>
       <c r="J114" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4710,11 +4288,13 @@
         <v>17081252.35624152</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>75.59999999999999</v>
+      </c>
       <c r="J115" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4749,11 +4329,13 @@
         <v>17084599.53834152</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>75.7</v>
+      </c>
       <c r="J116" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4788,13 +4370,13 @@
         <v>17084599.53834152</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>75.8</v>
       </c>
       <c r="J117" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4829,13 +4411,13 @@
         <v>17083464.91084152</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>75.8</v>
       </c>
       <c r="J118" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4870,13 +4452,13 @@
         <v>17084050.34584152</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>75.7</v>
       </c>
       <c r="J119" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4911,13 +4493,13 @@
         <v>17100396.74404152</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>75.90000000000001</v>
       </c>
       <c r="J120" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4952,13 +4534,11 @@
         <v>17092930.47764152</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4993,13 +4573,11 @@
         <v>17092930.47764152</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>75.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5038,7 +4616,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5077,7 +4655,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5112,13 +4690,11 @@
         <v>17200668.62964152</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>75.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5157,7 +4733,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5196,7 +4772,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5235,7 +4811,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5274,7 +4850,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5313,7 +4889,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5348,13 +4924,11 @@
         <v>17479029.00634152</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
-      </c>
-      <c r="I131" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5389,13 +4963,11 @@
         <v>17479029.00634152</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5430,13 +5002,11 @@
         <v>17479029.00634152</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5475,7 +5045,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5510,13 +5080,11 @@
         <v>17474699.60634152</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5551,13 +5119,11 @@
         <v>17479632.14334152</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>75.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5592,13 +5158,11 @@
         <v>17479632.14334152</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
-      </c>
-      <c r="I137" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5633,13 +5197,11 @@
         <v>17479632.14334152</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5674,13 +5236,11 @@
         <v>17479632.14334152</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5715,13 +5275,11 @@
         <v>17481132.14334152</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5756,13 +5314,11 @@
         <v>17520348.51174152</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
-      </c>
-      <c r="I141" t="n">
-        <v>75.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5797,13 +5353,11 @@
         <v>17452547.62194152</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5838,13 +5392,11 @@
         <v>17459359.49414152</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="n">
-        <v>75.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5879,13 +5431,11 @@
         <v>17467243.69414152</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>75.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5920,13 +5470,11 @@
         <v>17472549.87684152</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5961,13 +5509,11 @@
         <v>17472429.87684152</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="n">
-        <v>76.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6002,13 +5548,11 @@
         <v>17473178.87684152</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>75.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6043,13 +5587,11 @@
         <v>17461166.91074152</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6084,13 +5626,11 @@
         <v>17489134.05864152</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6125,13 +5665,11 @@
         <v>17491162.92422892</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6166,13 +5704,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>76.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6207,13 +5743,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6248,13 +5782,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
-      </c>
-      <c r="I153" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6289,13 +5821,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
-      </c>
-      <c r="I154" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6330,13 +5860,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6371,13 +5899,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6412,13 +5938,11 @@
         <v>17486704.89942892</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6453,13 +5977,11 @@
         <v>17464897.79292892</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>76.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6494,13 +6016,11 @@
         <v>17464897.79292892</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6539,7 +6059,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6578,7 +6098,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6617,7 +6137,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6656,7 +6176,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6695,7 +6215,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6734,7 +6254,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6773,7 +6293,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6812,7 +6332,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6851,7 +6371,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6890,7 +6410,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6929,7 +6449,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6968,7 +6488,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7007,7 +6527,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7046,7 +6566,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7085,7 +6605,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7124,7 +6644,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7163,7 +6683,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7202,7 +6722,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7241,7 +6761,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7280,7 +6800,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7319,7 +6839,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7358,7 +6878,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7397,7 +6917,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7436,7 +6956,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7471,13 +6991,11 @@
         <v>21951452.05272892</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7516,7 +7034,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7555,7 +7073,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7590,13 +7108,11 @@
         <v>21951452.05272892</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>75.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7635,7 +7151,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7670,13 +7186,11 @@
         <v>21946537.74376119</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>75.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7715,7 +7229,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7750,13 +7264,11 @@
         <v>21936865.79466119</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>75.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7795,7 +7307,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7830,13 +7342,11 @@
         <v>21936865.79466119</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>75.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7875,7 +7385,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7914,7 +7424,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7953,7 +7463,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7992,7 +7502,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8031,7 +7541,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8070,7 +7580,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8109,7 +7619,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8148,7 +7658,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8187,7 +7697,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8226,7 +7736,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8265,7 +7775,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8304,7 +7814,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8343,7 +7853,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8382,7 +7892,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8421,7 +7931,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8460,7 +7970,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8499,7 +8009,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8538,7 +8048,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8577,7 +8087,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8616,7 +8126,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8655,7 +8165,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8694,7 +8204,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8733,7 +8243,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8772,7 +8282,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8811,7 +8321,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8850,7 +8360,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8889,7 +8399,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8928,7 +8438,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8967,7 +8477,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9006,7 +8516,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9045,7 +8555,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9084,7 +8594,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9123,7 +8633,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9162,7 +8672,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9201,7 +8711,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9240,7 +8750,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9279,7 +8789,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9318,7 +8828,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9357,7 +8867,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9396,7 +8906,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9435,7 +8945,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9474,7 +8984,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9513,7 +9023,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9552,7 +9062,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9591,7 +9101,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9630,7 +9140,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9669,7 +9179,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9708,7 +9218,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9747,7 +9257,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9786,7 +9296,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9825,7 +9335,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9864,7 +9374,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9903,7 +9413,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9942,7 +9452,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9981,7 +9491,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10020,7 +9530,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10059,7 +9569,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10098,7 +9608,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10137,7 +9647,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10172,19 +9682,19 @@
         <v>25615671.32613285</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>75.7</v>
+        <v>75.2</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L253" t="n">
-        <v>1</v>
+        <v>1.010957446808511</v>
       </c>
       <c r="M253" t="inlineStr"/>
     </row>
@@ -10211,17 +9721,11 @@
         <v>25615671.32613285</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10250,17 +9754,11 @@
         <v>25615700.11044656</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10289,17 +9787,11 @@
         <v>22755700.11044656</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10328,17 +9820,11 @@
         <v>22749553.11044656</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10367,17 +9853,11 @@
         <v>22749553.11044656</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10406,17 +9886,11 @@
         <v>22749573.11044656</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10445,17 +9919,11 @@
         <v>17289573.11044656</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10484,17 +9952,11 @@
         <v>17289638.11044656</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10523,17 +9985,11 @@
         <v>17289638.11044656</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10562,17 +10018,11 @@
         <v>17289367.06204657</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10604,14 +10054,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10640,17 +10084,11 @@
         <v>12040407.69688572</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10679,17 +10117,11 @@
         <v>12040407.69688572</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10721,14 +10153,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10760,14 +10186,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10799,14 +10219,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10838,14 +10252,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10877,14 +10285,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10916,14 +10318,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10955,14 +10351,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10994,14 +10384,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11033,14 +10417,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11072,14 +10450,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11111,14 +10483,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11150,14 +10516,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11189,14 +10549,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11228,14 +10582,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11267,14 +10615,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11306,14 +10648,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11345,14 +10681,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11384,14 +10714,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11423,14 +10747,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11462,14 +10780,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11501,14 +10813,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11540,14 +10846,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11579,14 +10879,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11618,14 +10912,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11657,14 +10945,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11696,14 +10978,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11735,14 +11011,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11774,14 +11044,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11813,14 +11077,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11852,14 +11110,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11891,14 +11143,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11930,14 +11176,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11969,14 +11209,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12008,14 +11242,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12047,14 +11275,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12086,14 +11308,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12125,14 +11341,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12164,14 +11374,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12203,14 +11407,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12242,14 +11440,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12281,14 +11473,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12320,14 +11506,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12359,14 +11539,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12398,14 +11572,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12437,14 +11605,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12476,14 +11638,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12515,14 +11671,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12554,14 +11704,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12593,14 +11737,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12632,14 +11770,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12671,14 +11803,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12710,14 +11836,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12749,14 +11869,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12788,14 +11902,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12827,14 +11935,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12866,14 +11968,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12905,14 +12001,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12944,14 +12034,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12983,14 +12067,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13022,14 +12100,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13061,14 +12133,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13097,19 +12163,13 @@
         <v>12537362.67443782</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
-        <v>1.026704095112285</v>
+        <v>1</v>
       </c>
       <c r="M328" t="inlineStr"/>
     </row>
@@ -13136,7 +12196,7 @@
         <v>12537362.67443782</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13169,7 +12229,7 @@
         <v>12636812.07333782</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13202,7 +12262,7 @@
         <v>12627883.94833782</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13235,7 +12295,7 @@
         <v>12675989.23373782</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13268,7 +12328,7 @@
         <v>12526443.22843782</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13301,7 +12361,7 @@
         <v>12526443.22843782</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13334,7 +12394,7 @@
         <v>12503409.53073782</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13367,7 +12427,7 @@
         <v>12517208.83373782</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13400,7 +12460,7 @@
         <v>12517208.83373782</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13433,7 +12493,7 @@
         <v>12513016.03373782</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13466,7 +12526,7 @@
         <v>12512199.00053782</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13499,7 +12559,7 @@
         <v>12497503.17163782</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13532,7 +12592,7 @@
         <v>12480502.32323782</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13565,7 +12625,7 @@
         <v>12476072.32323782</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13664,7 +12724,7 @@
         <v>12452652.44273782</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13697,7 +12757,7 @@
         <v>11188424.75633782</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13730,7 +12790,7 @@
         <v>11186424.75633782</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13763,7 +12823,7 @@
         <v>11184653.85123782</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13796,7 +12856,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13829,7 +12889,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13862,7 +12922,7 @@
         <v>8436653.851237817</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13895,7 +12955,7 @@
         <v>8436653.851237817</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13928,7 +12988,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13961,7 +13021,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13994,7 +13054,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14060,7 +13120,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14093,7 +13153,7 @@
         <v>16437250.57803782</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14225,7 +13285,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14291,7 +13351,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14324,7 +13384,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14357,7 +13417,7 @@
         <v>17177151.30483782</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14885,7 +13945,7 @@
         <v>14217535.47523781</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -18119,7 +17179,7 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18185,7 +17245,7 @@
         <v>4233314.300381004</v>
       </c>
       <c r="H482" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18218,7 +17278,7 @@
         <v>3747284.373381004</v>
       </c>
       <c r="H483" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18251,7 +17311,7 @@
         <v>3750356.402381004</v>
       </c>
       <c r="H484" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18284,7 +17344,7 @@
         <v>3910305.743481004</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18317,7 +17377,7 @@
         <v>3825204.788881004</v>
       </c>
       <c r="H486" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18350,7 +17410,7 @@
         <v>3772992.698181004</v>
       </c>
       <c r="H487" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18383,7 +17443,7 @@
         <v>3775039.390081004</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -20836,6 +19896,6 @@
       <c r="M562" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest XLM.xlsx
+++ b/BackTest/2019-10-29 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3718,14 +3718,10 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J101" t="n">
-        <v>75.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
@@ -3755,19 +3751,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3796,19 +3784,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J103" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3837,19 +3817,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J104" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3878,19 +3850,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J105" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3919,19 +3883,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J106" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3960,19 +3916,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J107" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4001,19 +3949,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J108" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4042,19 +3982,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J109" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4083,19 +4015,11 @@
         <v>17070692.54184152</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4124,19 +4048,11 @@
         <v>17071876.54184152</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="J111" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4165,19 +4081,11 @@
         <v>17070476.54184152</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J112" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4206,19 +4114,11 @@
         <v>17070476.54184152</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J113" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4247,19 +4147,11 @@
         <v>17080052.35624152</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>75.5</v>
-      </c>
-      <c r="J114" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4288,19 +4180,11 @@
         <v>17081252.35624152</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="J115" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4329,19 +4213,11 @@
         <v>17084599.53834152</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J116" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4370,19 +4246,11 @@
         <v>17084599.53834152</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4411,19 +4279,11 @@
         <v>17083464.91084152</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="J118" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4452,19 +4312,11 @@
         <v>17084050.34584152</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J119" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4493,19 +4345,11 @@
         <v>17100396.74404152</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="J120" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4537,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4576,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4615,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4654,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4693,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4732,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4771,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4810,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4849,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4888,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4927,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5005,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5044,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5083,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5122,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5161,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5200,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5239,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5278,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5317,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5356,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5395,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5434,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5473,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5512,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5551,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5590,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5668,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5707,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5746,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5785,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5824,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5863,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5902,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5941,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5980,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6019,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6058,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6097,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6136,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6253,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6292,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6370,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6409,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6448,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6487,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6526,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6565,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6604,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6643,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6682,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6721,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6760,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6799,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6838,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6877,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6916,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6955,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6994,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7033,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7072,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7111,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7150,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7189,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7228,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7267,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7306,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7345,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7384,14 +6790,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7423,14 +6823,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7462,14 +6856,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7501,14 +6889,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7540,14 +6922,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7579,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7618,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7657,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7696,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7735,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7774,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7813,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7852,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7891,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7930,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7969,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8008,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8047,14 +7351,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8086,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8125,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8164,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8203,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8242,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8281,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8320,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8359,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8398,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8437,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8476,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8515,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8554,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8593,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8632,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8671,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8710,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8749,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8788,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8827,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8866,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8905,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8944,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8983,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9022,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9061,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9100,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9139,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9178,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9217,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9256,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9295,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9334,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9373,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9412,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9451,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9490,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9529,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9568,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9607,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9646,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9682,19 +8734,13 @@
         <v>25615671.32613285</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>75.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
-        <v>1.010957446808511</v>
+        <v>1</v>
       </c>
       <c r="M253" t="inlineStr"/>
     </row>
@@ -9721,7 +8767,7 @@
         <v>25615671.32613285</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9754,7 +8800,7 @@
         <v>25615700.11044656</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9787,7 +8833,7 @@
         <v>22755700.11044656</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9820,7 +8866,7 @@
         <v>22749553.11044656</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9853,7 +8899,7 @@
         <v>22749553.11044656</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9886,7 +8932,7 @@
         <v>22749573.11044656</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9919,7 +8965,7 @@
         <v>17289573.11044656</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9952,7 +8998,7 @@
         <v>17289638.11044656</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9985,7 +9031,7 @@
         <v>17289638.11044656</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10018,7 +9064,7 @@
         <v>17289367.06204657</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10084,7 +9130,7 @@
         <v>12040407.69688572</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10117,7 +9163,7 @@
         <v>12040407.69688572</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -12031,7 +11077,7 @@
         <v>12573611.05693782</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12064,7 +11110,7 @@
         <v>12527329.67443782</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12097,7 +11143,7 @@
         <v>12527329.67443782</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12130,7 +11176,7 @@
         <v>12537362.67443782</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12163,7 +11209,7 @@
         <v>12537362.67443782</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12196,7 +11242,7 @@
         <v>12537362.67443782</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12229,7 +11275,7 @@
         <v>12636812.07333782</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12262,7 +11308,7 @@
         <v>12627883.94833782</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12295,7 +11341,7 @@
         <v>12675989.23373782</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12328,7 +11374,7 @@
         <v>12526443.22843782</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12361,7 +11407,7 @@
         <v>12526443.22843782</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12394,7 +11440,7 @@
         <v>12503409.53073782</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12427,7 +11473,7 @@
         <v>12517208.83373782</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12460,7 +11506,7 @@
         <v>12517208.83373782</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12493,7 +11539,7 @@
         <v>12513016.03373782</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12526,7 +11572,7 @@
         <v>12512199.00053782</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12559,7 +11605,7 @@
         <v>12497503.17163782</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12592,7 +11638,7 @@
         <v>12480502.32323782</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12625,7 +11671,7 @@
         <v>12476072.32323782</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12658,7 +11704,7 @@
         <v>12453494.80333782</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12691,7 +11737,7 @@
         <v>12452271.11373782</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12724,7 +11770,7 @@
         <v>12452652.44273782</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12757,7 +11803,7 @@
         <v>11188424.75633782</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12790,7 +11836,7 @@
         <v>11186424.75633782</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12823,7 +11869,7 @@
         <v>11184653.85123782</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12856,7 +11902,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12889,7 +11935,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13021,7 +12067,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13054,7 +12100,7 @@
         <v>12436653.85123782</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13087,7 +12133,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13120,7 +12166,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13153,7 +12199,7 @@
         <v>16437250.57803782</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13186,7 +12232,7 @@
         <v>16437151.30483782</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13219,7 +12265,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13252,7 +12298,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13285,7 +12331,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13318,7 +12364,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13351,7 +12397,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13384,7 +12430,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13945,7 +12991,7 @@
         <v>14217535.47523781</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -16552,7 +15598,7 @@
         <v>3020778.209533513</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16618,7 +15664,7 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16750,7 +15796,7 @@
         <v>3103596.004281003</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16783,7 +15829,7 @@
         <v>3101429.426581004</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16816,7 +15862,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16849,7 +15895,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16882,7 +15928,7 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16915,7 +15961,7 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16948,7 +15994,7 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16981,7 +16027,7 @@
         <v>3142328.229781004</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17014,7 +16060,7 @@
         <v>3152328.229781004</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18961,11 +18007,17 @@
         <v>3809327.656732284</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18994,11 +18046,17 @@
         <v>3807943.998132283</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19031,7 +18089,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19064,7 +18126,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19097,7 +18163,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19130,7 +18200,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19163,7 +18237,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19196,7 +18274,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19229,7 +18311,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19262,7 +18348,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19295,7 +18385,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19328,7 +18422,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19361,7 +18459,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19394,7 +18496,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19427,7 +18533,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19460,7 +18570,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19493,7 +18607,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19526,7 +18644,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19559,7 +18681,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19592,7 +18718,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19625,7 +18755,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19658,7 +18792,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19691,7 +18829,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19720,11 +18862,17 @@
         <v>3586513.830232284</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>77.8</v>
+      </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19753,11 +18901,17 @@
         <v>3603227.631732284</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>77.5</v>
+      </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19786,11 +18940,17 @@
         <v>3603227.631732284</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19819,11 +18979,17 @@
         <v>3643687.854682853</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19852,11 +19018,17 @@
         <v>3639424.854682853</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19885,17 +19057,23 @@
         <v>3639424.854682853</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
       <c r="M562" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest XLM.xlsx
+++ b/BackTest/2019-10-29 BackTest XLM.xlsx
@@ -11044,7 +11044,7 @@
         <v>12573611.05693782</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>8434653.851237817</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>16436653.85123782</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>16437250.57803782</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>16437151.30483782</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>16427151.30483782</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -15532,10 +15532,14 @@
         <v>3021172.936133513</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J459" t="n">
+        <v>77.8</v>
+      </c>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
@@ -15565,11 +15569,19 @@
         <v>3021172.936133513</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J460" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15598,11 +15610,19 @@
         <v>3020778.209533513</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="J461" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15631,10 +15651,14 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J462" t="n">
+        <v>77.59999999999999</v>
+      </c>
       <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
@@ -15664,11 +15688,19 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J463" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15697,11 +15729,19 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J464" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15730,10 +15770,14 @@
         <v>3022061.906581003</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J465" t="n">
+        <v>77.90000000000001</v>
+      </c>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
@@ -15763,11 +15807,19 @@
         <v>3028637.202581003</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J466" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15796,11 +15848,19 @@
         <v>3103596.004281003</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>78</v>
+      </c>
+      <c r="J467" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15829,10 +15889,14 @@
         <v>3101429.426581004</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J468" t="n">
+        <v>78.2</v>
+      </c>
       <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
@@ -15862,11 +15926,19 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J469" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15895,11 +15967,19 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>78</v>
+      </c>
+      <c r="J470" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15928,10 +16008,14 @@
         <v>3103138.080381004</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>78</v>
+      </c>
+      <c r="J471" t="n">
+        <v>78</v>
+      </c>
       <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
@@ -15961,11 +16045,19 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>78</v>
+      </c>
+      <c r="J472" t="n">
+        <v>78</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -15994,11 +16086,19 @@
         <v>3106550.551381004</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J473" t="n">
+        <v>78</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16027,10 +16127,14 @@
         <v>3142328.229781004</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="J474" t="n">
+        <v>78.3</v>
+      </c>
       <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
@@ -16060,11 +16164,19 @@
         <v>3152328.229781004</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J475" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16093,11 +16205,19 @@
         <v>3152328.229781004</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J476" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16246,19 @@
         <v>3179324.579581004</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J477" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16159,11 +16287,19 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J478" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16328,19 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J479" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16369,19 @@
         <v>3270583.269081003</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J480" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16410,19 @@
         <v>4233314.300381004</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J481" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16451,17 @@
         <v>4233314.300381004</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16490,17 @@
         <v>3747284.373381004</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16529,17 @@
         <v>3750356.402381004</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16390,11 +16568,17 @@
         <v>3910305.743481004</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16423,11 +16607,17 @@
         <v>3825204.788881004</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16456,11 +16646,17 @@
         <v>3772992.698181004</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16489,13 +16685,19 @@
         <v>3775039.390081004</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L488" t="n">
-        <v>1</v>
+        <v>1.006494252873563</v>
       </c>
       <c r="M488" t="inlineStr"/>
     </row>
@@ -16555,7 +16757,7 @@
         <v>3770210.255581004</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16790,7 @@
         <v>3972115.426281004</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,11 +16823,17 @@
         <v>3960311.401381004</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>79</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +16862,17 @@
         <v>3960311.401381004</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +16901,17 @@
         <v>3673360.945081003</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +16940,17 @@
         <v>3724250.796481004</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +16979,17 @@
         <v>3810846.118481004</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>78.90000000000001</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +17018,17 @@
         <v>3810846.118481004</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>79.2</v>
+      </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +17057,17 @@
         <v>3742596.288281003</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>79.2</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +17096,17 @@
         <v>3742596.288281003</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17135,17 @@
         <v>4064564.503581003</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17174,17 @@
         <v>3979964.503581003</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>79.2</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17213,17 @@
         <v>3768487.164481003</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>79.09999999999999</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17252,17 @@
         <v>3713651.714881003</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>78.8</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17017,14 +17291,16 @@
         <v>3713661.714881003</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="n">
-        <v>1</v>
-      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr"/>
       <c r="M504" t="inlineStr"/>
     </row>
     <row r="505">
@@ -17050,7 +17326,7 @@
         <v>3804972.228781004</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17359,7 @@
         <v>3804658.013181003</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,10 +17392,14 @@
         <v>3804658.013181003</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J507" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
@@ -17149,11 +17429,19 @@
         <v>3820518.652081003</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J508" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +17470,19 @@
         <v>3820518.652081003</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J509" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17215,7 +17511,7 @@
         <v>3795685.652081003</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,10 +17544,14 @@
         <v>3797685.652081003</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J511" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
@@ -17281,11 +17581,19 @@
         <v>3783574.630881004</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J512" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17622,19 @@
         <v>3783574.630881004</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J513" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17663,19 @@
         <v>3788874.630881004</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J514" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17704,19 @@
         <v>3787312.972381004</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J515" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17745,19 @@
         <v>3787947.490147494</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J516" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17786,19 @@
         <v>3784876.907723134</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J517" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +17827,19 @@
         <v>3782462.176923134</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J518" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +17868,19 @@
         <v>3782462.176923134</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J519" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +17909,19 @@
         <v>3740092.681923134</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J520" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +17950,19 @@
         <v>3740092.681923134</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J521" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +17991,19 @@
         <v>3740415.515468234</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J522" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +18032,19 @@
         <v>3768752.583568234</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J523" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +18073,19 @@
         <v>3767269.165568233</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J524" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +18114,19 @@
         <v>3735038.986468234</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J525" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18155,19 @@
         <v>3681329.678068234</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J526" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18196,19 @@
         <v>3686916.099068234</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J527" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18237,19 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J528" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18278,19 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J529" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18319,19 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J530" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18360,19 @@
         <v>3697304.752668234</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J531" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18401,19 @@
         <v>3785645.433868234</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>78.7</v>
+      </c>
+      <c r="J532" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18442,19 @@
         <v>3788481.681032284</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J533" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18012,273 +18488,271 @@
       <c r="I534" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="J534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>78.59999999999999</v>
+      </c>
       <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L534" t="n">
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>79</v>
+      </c>
+      <c r="C535" t="n">
+        <v>79</v>
+      </c>
+      <c r="D535" t="n">
+        <v>79</v>
+      </c>
+      <c r="E535" t="n">
+        <v>79</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1383.6586</v>
+      </c>
+      <c r="G535" t="n">
+        <v>3807943.998132283</v>
+      </c>
+      <c r="H535" t="n">
+        <v>2</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L535" t="n">
+        <v>1.000089058524173</v>
+      </c>
+      <c r="M535" t="inlineStr"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>79</v>
+      </c>
+      <c r="C536" t="n">
+        <v>79</v>
+      </c>
+      <c r="D536" t="n">
+        <v>79</v>
+      </c>
+      <c r="E536" t="n">
+        <v>79</v>
+      </c>
+      <c r="F536" t="n">
+        <v>17471.4634</v>
+      </c>
+      <c r="G536" t="n">
+        <v>3807943.998132283</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
+      <c r="L536" t="n">
+        <v>1</v>
+      </c>
+      <c r="M536" t="inlineStr"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>79</v>
+      </c>
+      <c r="C537" t="n">
+        <v>79</v>
+      </c>
+      <c r="D537" t="n">
+        <v>79</v>
+      </c>
+      <c r="E537" t="n">
+        <v>79</v>
+      </c>
+      <c r="F537" t="n">
+        <v>13.924</v>
+      </c>
+      <c r="G537" t="n">
+        <v>3807943.998132283</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
+      <c r="L537" t="n">
+        <v>1</v>
+      </c>
+      <c r="M537" t="inlineStr"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>79</v>
+      </c>
+      <c r="C538" t="n">
+        <v>79</v>
+      </c>
+      <c r="D538" t="n">
+        <v>79</v>
+      </c>
+      <c r="E538" t="n">
+        <v>79</v>
+      </c>
+      <c r="F538" t="n">
+        <v>23251.7851</v>
+      </c>
+      <c r="G538" t="n">
+        <v>3807943.998132283</v>
+      </c>
+      <c r="H538" t="n">
+        <v>2</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
+      <c r="L538" t="n">
+        <v>1</v>
+      </c>
+      <c r="M538" t="inlineStr"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C539" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D539" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E539" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F539" t="n">
+        <v>2457.1494</v>
+      </c>
+      <c r="G539" t="n">
+        <v>3805486.848732283</v>
+      </c>
+      <c r="H539" t="n">
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>79</v>
+      </c>
+      <c r="J539" t="n">
+        <v>79</v>
+      </c>
+      <c r="K539" t="inlineStr"/>
+      <c r="L539" t="n">
+        <v>1</v>
+      </c>
+      <c r="M539" t="inlineStr"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C540" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D540" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E540" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F540" t="n">
+        <v>46.0516</v>
+      </c>
+      <c r="G540" t="n">
+        <v>3805486.848732283</v>
+      </c>
+      <c r="H540" t="n">
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J540" t="n">
+        <v>79</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L540" t="n">
+        <v>1</v>
+      </c>
+      <c r="M540" t="inlineStr"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C541" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="D541" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E541" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="F541" t="n">
+        <v>3707</v>
+      </c>
+      <c r="G541" t="n">
+        <v>3801779.848732283</v>
+      </c>
+      <c r="H541" t="n">
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J541" t="n">
+        <v>79</v>
+      </c>
+      <c r="K541" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>79</v>
-      </c>
-      <c r="C535" t="n">
-        <v>79</v>
-      </c>
-      <c r="D535" t="n">
-        <v>79</v>
-      </c>
-      <c r="E535" t="n">
-        <v>79</v>
-      </c>
-      <c r="F535" t="n">
-        <v>1383.6586</v>
-      </c>
-      <c r="G535" t="n">
-        <v>3807943.998132283</v>
-      </c>
-      <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L535" t="n">
-        <v>1</v>
-      </c>
-      <c r="M535" t="inlineStr"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>79</v>
-      </c>
-      <c r="C536" t="n">
-        <v>79</v>
-      </c>
-      <c r="D536" t="n">
-        <v>79</v>
-      </c>
-      <c r="E536" t="n">
-        <v>79</v>
-      </c>
-      <c r="F536" t="n">
-        <v>17471.4634</v>
-      </c>
-      <c r="G536" t="n">
-        <v>3807943.998132283</v>
-      </c>
-      <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L536" t="n">
-        <v>1</v>
-      </c>
-      <c r="M536" t="inlineStr"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>79</v>
-      </c>
-      <c r="C537" t="n">
-        <v>79</v>
-      </c>
-      <c r="D537" t="n">
-        <v>79</v>
-      </c>
-      <c r="E537" t="n">
-        <v>79</v>
-      </c>
-      <c r="F537" t="n">
-        <v>13.924</v>
-      </c>
-      <c r="G537" t="n">
-        <v>3807943.998132283</v>
-      </c>
-      <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L537" t="n">
-        <v>1</v>
-      </c>
-      <c r="M537" t="inlineStr"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>79</v>
-      </c>
-      <c r="C538" t="n">
-        <v>79</v>
-      </c>
-      <c r="D538" t="n">
-        <v>79</v>
-      </c>
-      <c r="E538" t="n">
-        <v>79</v>
-      </c>
-      <c r="F538" t="n">
-        <v>23251.7851</v>
-      </c>
-      <c r="G538" t="n">
-        <v>3807943.998132283</v>
-      </c>
-      <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L538" t="n">
-        <v>1</v>
-      </c>
-      <c r="M538" t="inlineStr"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C539" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D539" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E539" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F539" t="n">
-        <v>2457.1494</v>
-      </c>
-      <c r="G539" t="n">
-        <v>3805486.848732283</v>
-      </c>
-      <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L539" t="n">
-        <v>1</v>
-      </c>
-      <c r="M539" t="inlineStr"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C540" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D540" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E540" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F540" t="n">
-        <v>46.0516</v>
-      </c>
-      <c r="G540" t="n">
-        <v>3805486.848732283</v>
-      </c>
-      <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L540" t="n">
-        <v>1</v>
-      </c>
-      <c r="M540" t="inlineStr"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C541" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="D541" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E541" t="n">
-        <v>78.8</v>
-      </c>
-      <c r="F541" t="n">
-        <v>3707</v>
-      </c>
-      <c r="G541" t="n">
-        <v>3801779.848732283</v>
-      </c>
-      <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18307,10 +18781,14 @@
         <v>3801779.848732283</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J542" t="n">
+        <v>79</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18344,10 +18822,14 @@
         <v>3801510.435132283</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>78.8</v>
+      </c>
+      <c r="J543" t="n">
+        <v>79</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18381,10 +18863,14 @@
         <v>3801510.435132283</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J544" t="n">
+        <v>79</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18418,10 +18904,14 @@
         <v>3778426.711732283</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="J545" t="n">
+        <v>79</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18455,10 +18945,14 @@
         <v>3778426.711732283</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J546" t="n">
+        <v>79</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18492,10 +18986,14 @@
         <v>3612458.900832283</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="J547" t="n">
+        <v>79</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18529,10 +19027,14 @@
         <v>3608031.571332283</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="J548" t="n">
+        <v>79</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18566,10 +19068,14 @@
         <v>3591821.998232283</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="J549" t="n">
+        <v>79</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18603,10 +19109,14 @@
         <v>3583733.890932283</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J550" t="n">
+        <v>79</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18640,10 +19150,14 @@
         <v>3587601.373632283</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="J551" t="n">
+        <v>79</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18677,10 +19191,14 @@
         <v>3587625.342632283</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="J552" t="n">
+        <v>79</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18714,10 +19232,14 @@
         <v>3587625.342632283</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J553" t="n">
+        <v>79</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18751,10 +19273,14 @@
         <v>3587625.342632283</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J554" t="n">
+        <v>79</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18788,10 +19314,14 @@
         <v>3586963.938532284</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="J555" t="n">
+        <v>79</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18825,10 +19355,14 @@
         <v>3589146.917232283</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>77.5</v>
+      </c>
+      <c r="J556" t="n">
+        <v>79</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18867,7 +19401,9 @@
       <c r="I557" t="n">
         <v>77.8</v>
       </c>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>79</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18906,7 +19442,9 @@
       <c r="I558" t="n">
         <v>77.5</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>79</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18945,7 +19483,9 @@
       <c r="I559" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>79</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18984,7 +19524,9 @@
       <c r="I560" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>79</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19023,7 +19565,9 @@
       <c r="I561" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>79</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19062,7 +19606,9 @@
       <c r="I562" t="n">
         <v>77.59999999999999</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>79</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
